--- a/excel/UCH758.xlsx
+++ b/excel/UCH758.xlsx
@@ -208,18 +208,24 @@
     <t>Блок 7. СНИЛС</t>
   </si>
   <si>
+    <t>subjectApplied</t>
+  </si>
+  <si>
+    <t>1.1 Субъект обратился к источнику с предложением совершить сделку</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      application</t>
+  </si>
+  <si>
+    <t>Блок 55. (юр Блок 45) Сведения об обращении субъекта к источнику с предложением совершить сделку</t>
+  </si>
+  <si>
     <t>applicationChanged</t>
   </si>
   <si>
     <t>1.2 Источник одобрил обращение субъекта (направил ему оферту) или изменились сведения об обращении</t>
   </si>
   <si>
-    <t xml:space="preserve">      application</t>
-  </si>
-  <si>
-    <t>Блок 55. (юр Блок 45) Сведения об обращении субъекта к источнику с предложением совершить сделку</t>
-  </si>
-  <si>
     <t>applicationRejected</t>
   </si>
   <si>
@@ -656,12 +662,6 @@
   </si>
   <si>
     <t>Блок 53. (юр Блок 43) Сведения об обслуживающей организации</t>
-  </si>
-  <si>
-    <t>subjectApplied</t>
-  </si>
-  <si>
-    <t>1.1 Субъект обратился к источнику с предложением совершить сделку</t>
   </si>
   <si>
     <t>OrgEventType</t>
@@ -1306,7 +1306,7 @@
     <t>subjectRole</t>
   </si>
   <si>
-    <t>Блок 18+ Код вида участия в сделке (Отличие от Положения-758: Выделено из Блока 18, потому что не является свойством Договора, а является свойством Субъекта в сделке по Договору, поэтому обрабатывается отдельно, поэтому здесь maxOcc=0)</t>
+    <t>Блок 18+ Код вида участия в сделке (Отличие от Положения-758: Выделено из Блока 18, потому что не является свойством Договора, а является свойством Субъекта в сделке по Договору, обрабатывается отдельно, поэтому здесь maxOcc=0)</t>
   </si>
   <si>
     <t>Справочник 2.1. Виды участия в сделке</t>
@@ -3189,26 +3189,26 @@
         <v>69</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>8</v>
@@ -3216,21 +3216,21 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>8</v>
@@ -3238,10 +3238,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>8</v>
@@ -3249,10 +3249,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>8</v>
@@ -3260,10 +3260,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>8</v>
@@ -3271,10 +3271,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>8</v>
@@ -3282,10 +3282,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>8</v>
@@ -3293,10 +3293,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>8</v>
@@ -3304,10 +3304,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>8</v>
@@ -3315,65 +3315,65 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="4" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="4" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="4" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>8</v>
@@ -3381,21 +3381,21 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="4" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>8</v>
@@ -3403,10 +3403,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>8</v>
@@ -3414,10 +3414,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>8</v>
@@ -3425,10 +3425,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>8</v>
@@ -3436,10 +3436,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>8</v>
@@ -3447,10 +3447,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>8</v>
@@ -3458,10 +3458,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>8</v>
@@ -3469,10 +3469,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>8</v>
@@ -3480,54 +3480,54 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="4" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="4" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="4" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>8</v>
@@ -3535,21 +3535,21 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="4" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>8</v>
@@ -3557,10 +3557,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>8</v>
@@ -3568,10 +3568,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>8</v>
@@ -3579,10 +3579,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>8</v>
@@ -3590,10 +3590,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>8</v>
@@ -3601,10 +3601,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>8</v>
@@ -3612,10 +3612,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>8</v>
@@ -3623,10 +3623,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>8</v>
@@ -3634,54 +3634,54 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="4" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="4" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="4" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="4" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>8</v>
@@ -3689,21 +3689,21 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="4" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>8</v>
@@ -3711,10 +3711,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>8</v>
@@ -3722,10 +3722,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>8</v>
@@ -3733,10 +3733,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>8</v>
@@ -3744,10 +3744,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>8</v>
@@ -3755,10 +3755,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>8</v>
@@ -3766,10 +3766,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>8</v>
@@ -3777,10 +3777,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>8</v>
@@ -3788,54 +3788,54 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="4" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="C73" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="4" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="4" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>8</v>
@@ -3843,10 +3843,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="4" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>8</v>
@@ -3854,10 +3854,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>8</v>
@@ -3865,10 +3865,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>8</v>
@@ -3876,10 +3876,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>8</v>
@@ -3887,10 +3887,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>8</v>
@@ -3898,10 +3898,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="4" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>8</v>
@@ -3920,21 +3920,21 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="4" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="4" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>8</v>
@@ -3942,21 +3942,21 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="4" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>8</v>
@@ -3964,10 +3964,10 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>8</v>
@@ -3975,10 +3975,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>8</v>
@@ -3986,10 +3986,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="4" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>8</v>
@@ -3997,10 +3997,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="4" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>8</v>
@@ -4014,15 +4014,15 @@
         <v>128</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>8</v>
@@ -4030,32 +4030,32 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="4" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="4" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>8</v>
@@ -4063,21 +4063,21 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="4" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>8</v>
@@ -4085,87 +4085,87 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="4" t="s">
-        <v>131</v>
+        <v>58</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="4" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="4" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>8</v>
@@ -4173,10 +4173,10 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>8</v>
@@ -4184,13 +4184,13 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="4" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -4217,10 +4217,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="4" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>8</v>
@@ -4228,32 +4228,32 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="4" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>8</v>
@@ -4261,21 +4261,21 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="4" t="s">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="4" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>8</v>
@@ -4283,10 +4283,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="4" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>8</v>
@@ -4294,10 +4294,10 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="4" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>8</v>
@@ -4305,21 +4305,21 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="4" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>8</v>
@@ -4327,21 +4327,21 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="4" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>8</v>
@@ -4349,10 +4349,10 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="4" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>8</v>
@@ -4360,10 +4360,10 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>8</v>
@@ -4371,10 +4371,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>8</v>
@@ -4382,10 +4382,10 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>8</v>
@@ -4393,10 +4393,10 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="4" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>8</v>
@@ -4404,7 +4404,7 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="4" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>120</v>
@@ -4415,21 +4415,21 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="4" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="4" t="s">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>8</v>
@@ -4437,21 +4437,21 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="4" t="s">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="4" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>8</v>
@@ -4459,10 +4459,10 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="4" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>8</v>
@@ -4470,10 +4470,10 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="4" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>8</v>
@@ -4481,21 +4481,21 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="4" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>8</v>
@@ -4503,21 +4503,21 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="4" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="4" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>8</v>
@@ -4525,21 +4525,21 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="4" t="s">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="4" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>8</v>
@@ -4547,10 +4547,10 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="4" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>8</v>
@@ -4558,10 +4558,10 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>8</v>
@@ -4569,10 +4569,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="4" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>8</v>
@@ -4580,10 +4580,10 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="4" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>8</v>
@@ -4591,10 +4591,10 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="4" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>8</v>
@@ -4602,10 +4602,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>8</v>
@@ -4613,10 +4613,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>8</v>
@@ -4624,10 +4624,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>8</v>
@@ -4635,10 +4635,10 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="4" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>8</v>
@@ -4646,7 +4646,7 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="4" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>120</v>
@@ -4657,21 +4657,21 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="4" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>151</v>
+        <v>93</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="4" t="s">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>8</v>
@@ -4679,21 +4679,21 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="4" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="4" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>8</v>
@@ -4701,10 +4701,10 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="4" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>8</v>
@@ -4712,10 +4712,10 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="4" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>8</v>
@@ -4723,21 +4723,21 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="4" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="4" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>8</v>
@@ -4745,21 +4745,21 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="4" t="s">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="4" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>8</v>
@@ -4767,21 +4767,21 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="4" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="4" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>8</v>
@@ -4789,21 +4789,21 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B162" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B162" s="4" t="s">
+      <c r="C162" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="4" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>8</v>
@@ -4811,10 +4811,10 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="4" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>8</v>
@@ -4822,10 +4822,10 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="4" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>8</v>
@@ -4833,10 +4833,10 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>8</v>
@@ -4844,10 +4844,10 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>8</v>
@@ -4855,10 +4855,10 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>8</v>
@@ -4866,10 +4866,10 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="4" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>8</v>
@@ -4877,7 +4877,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="4" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>120</v>
@@ -4888,21 +4888,21 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="4" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="4" t="s">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>8</v>
@@ -4910,21 +4910,21 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="4" t="s">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="4" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>8</v>
@@ -4932,21 +4932,21 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="4" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="4" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>8</v>
@@ -4954,32 +4954,32 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="4" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="4" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="4" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>8</v>
@@ -4987,43 +4987,43 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="4" t="s">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="4" t="s">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>159</v>
+        <v>75</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="4" t="s">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>51</v>
@@ -5031,10 +5031,10 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>51</v>
@@ -5042,10 +5042,10 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>51</v>
@@ -5053,10 +5053,10 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>51</v>
@@ -5064,43 +5064,43 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="4" t="s">
-        <v>72</v>
+        <v>170</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="4" t="s">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>75</v>
+        <v>173</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="4" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>8</v>
@@ -5108,10 +5108,10 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="4" t="s">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>8</v>
@@ -5119,10 +5119,10 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="4" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>8</v>
@@ -5130,10 +5130,10 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="4" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>96</v>
+        <v>175</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>8</v>
@@ -5141,10 +5141,10 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="4" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>8</v>
@@ -5152,10 +5152,10 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="4" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>8</v>
@@ -5163,10 +5163,10 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="4" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>8</v>
@@ -5174,10 +5174,10 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>8</v>
@@ -5185,10 +5185,10 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>8</v>
@@ -5196,10 +5196,10 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>8</v>
@@ -5207,10 +5207,10 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="4" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>8</v>
@@ -5218,7 +5218,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="4" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>120</v>
@@ -5229,21 +5229,21 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="4" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>175</v>
+        <v>93</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="4" t="s">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>8</v>
@@ -5251,21 +5251,21 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="4" t="s">
-        <v>74</v>
+        <v>176</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="4" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>8</v>
@@ -5273,10 +5273,10 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="4" t="s">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>8</v>
@@ -5284,10 +5284,10 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="4" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>8</v>
@@ -5295,10 +5295,10 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="4" t="s">
-        <v>105</v>
+        <v>174</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>106</v>
+        <v>175</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>8</v>
@@ -5306,21 +5306,21 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="4" t="s">
-        <v>176</v>
+        <v>123</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="4" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>8</v>
@@ -5328,21 +5328,21 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="4" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>75</v>
+        <v>179</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="4" t="s">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>179</v>
+        <v>75</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>8</v>
@@ -5350,21 +5350,21 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="4" t="s">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="4" t="s">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>73</v>
+        <v>181</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>8</v>
@@ -5372,21 +5372,21 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="4" t="s">
-        <v>74</v>
+        <v>182</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>75</v>
+        <v>183</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="4" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>182</v>
+        <v>75</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>8</v>
@@ -5394,10 +5394,10 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="4" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>8</v>
@@ -5405,7 +5405,7 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="4" t="s">
-        <v>183</v>
+        <v>88</v>
       </c>
       <c r="B218" s="4" t="s">
         <v>184</v>
@@ -5416,21 +5416,21 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="4" t="s">
-        <v>185</v>
+        <v>97</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>186</v>
+        <v>98</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="4" t="s">
-        <v>72</v>
+        <v>185</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>73</v>
+        <v>186</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>8</v>
@@ -5438,21 +5438,21 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="4" t="s">
-        <v>74</v>
+        <v>187</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="4" t="s">
-        <v>183</v>
+        <v>74</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>8</v>
@@ -5460,10 +5460,10 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="4" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>8</v>
@@ -5471,21 +5471,21 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="4" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>8</v>
@@ -5493,21 +5493,21 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="4" t="s">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="4" t="s">
-        <v>183</v>
+        <v>74</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>8</v>
@@ -5515,10 +5515,10 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="4" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>8</v>
@@ -5526,21 +5526,21 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="4" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>8</v>
@@ -5548,21 +5548,21 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="4" t="s">
-        <v>74</v>
+        <v>191</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="4" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>182</v>
+        <v>75</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>8</v>
@@ -5570,10 +5570,10 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="4" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>8</v>
@@ -5581,10 +5581,10 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="4" t="s">
-        <v>191</v>
+        <v>88</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>8</v>
@@ -5592,21 +5592,21 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="4" t="s">
-        <v>193</v>
+        <v>97</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>194</v>
+        <v>98</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="4" t="s">
-        <v>72</v>
+        <v>193</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>73</v>
+        <v>194</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>8</v>
@@ -5614,21 +5614,21 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="4" t="s">
-        <v>74</v>
+        <v>195</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>75</v>
+        <v>196</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="4" t="s">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>195</v>
+        <v>75</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>8</v>
@@ -5636,10 +5636,10 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="4" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>8</v>
@@ -5647,21 +5647,21 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B240" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="4" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>8</v>
@@ -5669,21 +5669,21 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="4" t="s">
-        <v>74</v>
+        <v>198</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>75</v>
+        <v>199</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="4" t="s">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>195</v>
+        <v>75</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>8</v>
@@ -5691,10 +5691,10 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="4" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>8</v>
@@ -5702,21 +5702,21 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="4" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>8</v>
@@ -5730,81 +5730,81 @@
         <v>201</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="4" t="s">
-        <v>202</v>
+        <v>74</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>203</v>
+        <v>75</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="4" t="s">
-        <v>72</v>
+        <v>202</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>73</v>
+        <v>203</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="4" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="4" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="4" t="s">
-        <v>206</v>
+        <v>94</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>207</v>
+        <v>95</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>24</v>
@@ -5812,13 +5812,13 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="4" t="s">
-        <v>72</v>
+        <v>208</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>73</v>
+        <v>209</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -5829,18 +5829,18 @@
         <v>211</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="4" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -5851,18 +5851,18 @@
         <v>213</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="4" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -5980,10 +5980,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>212</v>
+        <v>62</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>213</v>
+        <v>63</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>24</v>
@@ -6002,10 +6002,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>24</v>
@@ -6024,10 +6024,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>24</v>
@@ -6046,10 +6046,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>8</v>
@@ -6057,10 +6057,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>24</v>
@@ -6068,10 +6068,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>8</v>
@@ -6079,10 +6079,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>8</v>
@@ -6101,10 +6101,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>8</v>
@@ -6112,10 +6112,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>8</v>
@@ -6123,13 +6123,13 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -6145,10 +6145,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>8</v>
@@ -6156,10 +6156,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>8</v>
@@ -6167,10 +6167,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>24</v>
@@ -6178,10 +6178,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>8</v>
@@ -6189,10 +6189,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>8</v>
@@ -6211,10 +6211,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>8</v>
@@ -6222,10 +6222,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>8</v>
@@ -6233,13 +6233,13 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -6255,10 +6255,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>8</v>
@@ -6266,10 +6266,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>24</v>
@@ -6277,10 +6277,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>8</v>
@@ -6288,10 +6288,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>8</v>
@@ -6310,10 +6310,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>8</v>
@@ -6321,10 +6321,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>8</v>
@@ -6332,13 +6332,13 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -6354,10 +6354,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>8</v>
@@ -6365,10 +6365,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>24</v>
@@ -6376,10 +6376,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>8</v>
@@ -6387,10 +6387,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>8</v>
@@ -6409,10 +6409,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>8</v>
@@ -6420,10 +6420,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>8</v>
@@ -6431,13 +6431,13 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -6453,10 +6453,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>8</v>
@@ -6464,10 +6464,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>8</v>
@@ -6475,10 +6475,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>8</v>
@@ -6486,10 +6486,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>8</v>
@@ -6497,10 +6497,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>8</v>
@@ -6508,10 +6508,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>8</v>
@@ -6519,10 +6519,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>8</v>
@@ -6530,10 +6530,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>8</v>
@@ -6541,10 +6541,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>8</v>
@@ -6552,10 +6552,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>24</v>
@@ -6574,10 +6574,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>8</v>
@@ -6585,10 +6585,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>8</v>
@@ -6596,10 +6596,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>24</v>
@@ -6607,10 +6607,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>8</v>
@@ -6618,10 +6618,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>8</v>
@@ -6629,10 +6629,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>24</v>
@@ -6695,10 +6695,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>24</v>
@@ -6706,10 +6706,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>8</v>
@@ -6717,10 +6717,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>24</v>
@@ -6728,10 +6728,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>8</v>
@@ -6739,7 +6739,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>227</v>
@@ -6750,10 +6750,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>24</v>
@@ -6761,10 +6761,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>8</v>
@@ -6772,10 +6772,10 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>8</v>
@@ -6783,10 +6783,10 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>8</v>
@@ -6794,10 +6794,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>8</v>
@@ -6805,10 +6805,10 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>8</v>
@@ -6816,21 +6816,21 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>8</v>
@@ -6838,10 +6838,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>8</v>
@@ -6849,10 +6849,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>8</v>
@@ -6860,10 +6860,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>8</v>
@@ -6871,10 +6871,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>8</v>
@@ -6882,10 +6882,10 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>8</v>
@@ -6893,10 +6893,10 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>8</v>
@@ -6904,10 +6904,10 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>24</v>
@@ -6915,10 +6915,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>8</v>
@@ -6926,10 +6926,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>8</v>
@@ -6937,10 +6937,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>8</v>
@@ -6948,10 +6948,10 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>8</v>
@@ -6959,10 +6959,10 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>8</v>
@@ -6970,21 +6970,21 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>8</v>
@@ -6992,10 +6992,10 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>24</v>
@@ -7003,10 +7003,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>8</v>
@@ -7014,10 +7014,10 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>8</v>
@@ -7025,10 +7025,10 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>8</v>
@@ -7036,10 +7036,10 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>8</v>
@@ -7047,10 +7047,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>8</v>
@@ -7058,10 +7058,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>8</v>
@@ -7069,10 +7069,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>8</v>
@@ -7080,10 +7080,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>8</v>
@@ -7091,10 +7091,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>8</v>
@@ -7102,10 +7102,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>8</v>
@@ -7113,10 +7113,10 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>8</v>
@@ -7124,10 +7124,10 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>24</v>
@@ -7135,10 +7135,10 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>8</v>
@@ -7146,10 +7146,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>8</v>
@@ -7157,10 +7157,10 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>8</v>
@@ -7168,10 +7168,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>8</v>
@@ -7179,10 +7179,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>8</v>
@@ -7190,10 +7190,10 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>24</v>
@@ -7201,10 +7201,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>8</v>
@@ -7212,10 +7212,10 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>8</v>
@@ -7223,10 +7223,10 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>8</v>
@@ -7234,21 +7234,21 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>8</v>
@@ -7256,10 +7256,10 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>8</v>
@@ -7267,10 +7267,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>8</v>
@@ -7278,10 +7278,10 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>8</v>
@@ -7289,10 +7289,10 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>8</v>
@@ -7300,10 +7300,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>8</v>
@@ -7311,10 +7311,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>8</v>
@@ -7322,10 +7322,10 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>8</v>
@@ -7333,10 +7333,10 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>24</v>
@@ -7344,10 +7344,10 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>8</v>
@@ -7355,10 +7355,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>8</v>
@@ -7366,10 +7366,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>8</v>
@@ -7377,21 +7377,21 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>8</v>
@@ -7399,10 +7399,10 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>8</v>
@@ -7410,10 +7410,10 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>24</v>
@@ -7421,10 +7421,10 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>8</v>
@@ -7432,10 +7432,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>8</v>
@@ -7443,10 +7443,10 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>51</v>
@@ -7454,10 +7454,10 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>51</v>
@@ -7465,10 +7465,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>51</v>
@@ -7476,10 +7476,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>51</v>
@@ -7487,10 +7487,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>51</v>
@@ -7498,10 +7498,10 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>51</v>
@@ -7509,10 +7509,10 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>24</v>
@@ -7520,10 +7520,10 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>8</v>
@@ -7531,10 +7531,10 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>8</v>
@@ -7542,10 +7542,10 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>8</v>
@@ -7553,10 +7553,10 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>8</v>
@@ -7564,10 +7564,10 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>8</v>
@@ -7575,10 +7575,10 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>8</v>
@@ -7586,10 +7586,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>8</v>
@@ -7597,10 +7597,10 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>8</v>
@@ -7608,10 +7608,10 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>8</v>
@@ -7619,10 +7619,10 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>8</v>
@@ -7630,10 +7630,10 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>8</v>
@@ -7641,10 +7641,10 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>8</v>
@@ -7652,10 +7652,10 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>24</v>
@@ -7663,10 +7663,10 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>8</v>
@@ -7674,10 +7674,10 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>8</v>
@@ -7685,10 +7685,10 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>8</v>
@@ -7696,10 +7696,10 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>8</v>
@@ -7707,10 +7707,10 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>8</v>
@@ -7718,10 +7718,10 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>8</v>
@@ -7729,10 +7729,10 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>24</v>
@@ -7740,10 +7740,10 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>8</v>
@@ -7751,10 +7751,10 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>8</v>
@@ -7762,10 +7762,10 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>8</v>
@@ -7773,10 +7773,10 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>24</v>
@@ -7784,10 +7784,10 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>8</v>
@@ -7795,10 +7795,10 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C175" s="4" t="s">
         <v>8</v>
@@ -7806,10 +7806,10 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>8</v>
@@ -7817,10 +7817,10 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>8</v>
@@ -7828,10 +7828,10 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>8</v>
@@ -7839,10 +7839,10 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>24</v>
@@ -7850,10 +7850,10 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>8</v>
@@ -7861,10 +7861,10 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>8</v>
@@ -7872,10 +7872,10 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>8</v>
@@ -7883,10 +7883,10 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>8</v>
@@ -7894,10 +7894,10 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>24</v>
@@ -7905,10 +7905,10 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>8</v>
@@ -7916,10 +7916,10 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>8</v>
@@ -7927,10 +7927,10 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C187" s="4" t="s">
         <v>8</v>
@@ -7938,10 +7938,10 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>8</v>
@@ -7949,10 +7949,10 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>24</v>
@@ -7960,10 +7960,10 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>8</v>
@@ -7971,10 +7971,10 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>8</v>
@@ -7982,10 +7982,10 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>8</v>
@@ -7993,10 +7993,10 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>8</v>
@@ -8004,10 +8004,10 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>8</v>
@@ -8015,10 +8015,10 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>24</v>
@@ -8026,10 +8026,10 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>8</v>
@@ -8037,10 +8037,10 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>8</v>
@@ -8048,10 +8048,10 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>8</v>
@@ -8059,10 +8059,10 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>8</v>
@@ -8070,10 +8070,10 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>24</v>
@@ -8081,10 +8081,10 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>8</v>
@@ -8092,10 +8092,10 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>8</v>
@@ -8103,10 +8103,10 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>8</v>
@@ -8114,10 +8114,10 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>8</v>
@@ -8125,10 +8125,10 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>24</v>
@@ -8136,10 +8136,10 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>8</v>
@@ -8147,21 +8147,21 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>24</v>
@@ -8169,10 +8169,10 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>8</v>
@@ -8180,10 +8180,10 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>11</v>
@@ -8191,21 +8191,21 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>24</v>
@@ -8213,10 +8213,10 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>24</v>
@@ -8224,10 +8224,10 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>24</v>
@@ -8235,10 +8235,10 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>8</v>
@@ -8246,24 +8246,24 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -8897,13 +8897,13 @@
         <v>292</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -9135,13 +9135,13 @@
         <v>328</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -9373,13 +9373,13 @@
         <v>329</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -9429,13 +9429,13 @@
         <v>338</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -9471,13 +9471,13 @@
         <v>340</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -9541,13 +9541,13 @@
         <v>350</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -9639,13 +9639,13 @@
         <v>363</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -9835,13 +9835,13 @@
         <v>391</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -9863,13 +9863,13 @@
         <v>395</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -10020,7 +10020,7 @@
         <v>419</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>420</v>
@@ -10031,18 +10031,18 @@
         <v>421</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>422</v>
@@ -10087,13 +10087,13 @@
         <v>429</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -10115,13 +10115,13 @@
         <v>433</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -10255,13 +10255,13 @@
         <v>453</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -10311,13 +10311,13 @@
         <v>461</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -10451,13 +10451,13 @@
         <v>482</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -10479,18 +10479,18 @@
         <v>484</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>485</v>
@@ -10605,18 +10605,18 @@
         <v>497</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>485</v>
@@ -10717,18 +10717,18 @@
         <v>499</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C175" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>485</v>
@@ -10857,13 +10857,13 @@
         <v>505</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -11039,18 +11039,18 @@
         <v>532</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>533</v>
@@ -11081,13 +11081,13 @@
         <v>535</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -11151,13 +11151,13 @@
         <v>544</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -11221,13 +11221,13 @@
         <v>549</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -11375,13 +11375,13 @@
         <v>566</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -11400,7 +11400,7 @@
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B224" s="4" t="s">
         <v>569</v>
@@ -11487,13 +11487,13 @@
         <v>575</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -11512,7 +11512,7 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B232" s="4" t="s">
         <v>569</v>
@@ -11599,13 +11599,13 @@
         <v>576</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -11711,13 +11711,13 @@
         <v>587</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -11750,7 +11750,7 @@
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B249" s="4" t="s">
         <v>592</v>
@@ -11767,13 +11767,13 @@
         <v>593</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -11823,13 +11823,13 @@
         <v>599</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -11865,13 +11865,13 @@
         <v>604</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -11938,7 +11938,7 @@
         <v>614</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D262" s="4" t="s">
         <v>614</v>
@@ -11946,7 +11946,7 @@
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B263" s="4" t="s">
         <v>533</v>
@@ -11988,7 +11988,7 @@
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B266" s="4" t="s">
         <v>393</v>
@@ -12019,7 +12019,7 @@
         <v>618</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C268" s="4" t="s">
         <v>11</v>
@@ -12159,7 +12159,7 @@
         <v>634</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C278" s="4" t="s">
         <v>11</v>
@@ -12299,13 +12299,13 @@
         <v>635</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C288" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -12562,7 +12562,7 @@
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B307" s="4" t="s">
         <v>662</v>
@@ -12593,13 +12593,13 @@
         <v>664</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -13458,7 +13458,7 @@
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B371" s="4" t="s">
         <v>662</v>
@@ -13766,7 +13766,7 @@
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B393" s="4" t="s">
         <v>662</v>
@@ -13797,13 +13797,13 @@
         <v>710</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>704</v>
       </c>
       <c r="D395" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -13951,13 +13951,13 @@
         <v>713</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>704</v>
       </c>
       <c r="D406" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -14161,13 +14161,13 @@
         <v>714</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C421" s="4" t="s">
         <v>704</v>
       </c>
       <c r="D421" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -14329,13 +14329,13 @@
         <v>721</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D433" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -14368,7 +14368,7 @@
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B436" s="4" t="s">
         <v>725</v>
@@ -14382,7 +14382,7 @@
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B437" s="4" t="s">
         <v>726</v>
@@ -14483,18 +14483,18 @@
         <v>737</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>709</v>
       </c>
       <c r="D444" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B445" s="4" t="s">
         <v>725</v>
@@ -14522,7 +14522,7 @@
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B447" s="4" t="s">
         <v>393</v>
@@ -14581,13 +14581,13 @@
         <v>741</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>709</v>
       </c>
       <c r="D451" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -15101,7 +15101,7 @@
         <v>51</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -15325,7 +15325,7 @@
         <v>8</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -15347,13 +15347,13 @@
         <v>395</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -15507,12 +15507,12 @@
         <v>8</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>422</v>
@@ -15563,7 +15563,7 @@
         <v>8</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -15591,7 +15591,7 @@
         <v>8</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -15731,7 +15731,7 @@
         <v>51</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -15865,13 +15865,13 @@
         <v>482</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -15893,18 +15893,18 @@
         <v>484</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>485</v>
@@ -16019,18 +16019,18 @@
         <v>497</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>485</v>
@@ -16131,18 +16131,18 @@
         <v>499</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>485</v>
@@ -16271,13 +16271,13 @@
         <v>505</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -16453,18 +16453,18 @@
         <v>532</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>533</v>
@@ -16495,13 +16495,13 @@
         <v>535</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -16565,13 +16565,13 @@
         <v>544</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -16635,13 +16635,13 @@
         <v>549</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -16789,13 +16789,13 @@
         <v>566</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -16814,7 +16814,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>569</v>
@@ -16901,13 +16901,13 @@
         <v>575</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -16926,7 +16926,7 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>569</v>
@@ -17013,13 +17013,13 @@
         <v>576</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -17125,13 +17125,13 @@
         <v>587</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -17164,7 +17164,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>592</v>
@@ -17181,13 +17181,13 @@
         <v>593</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -17237,13 +17237,13 @@
         <v>599</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C187" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -17279,13 +17279,13 @@
         <v>604</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -17489,7 +17489,7 @@
         <v>634</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>11</v>
@@ -17635,7 +17635,7 @@
         <v>11</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -18634,7 +18634,7 @@
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B287" s="4" t="s">
         <v>662</v>
@@ -18942,7 +18942,7 @@
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B309" s="4" t="s">
         <v>662</v>
@@ -18973,13 +18973,13 @@
         <v>710</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C311" s="4" t="s">
         <v>704</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -19127,13 +19127,13 @@
         <v>713</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C322" s="4" t="s">
         <v>704</v>
       </c>
       <c r="D322" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -19337,13 +19337,13 @@
         <v>714</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>704</v>
       </c>
       <c r="D337" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -19505,13 +19505,13 @@
         <v>721</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C349" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D349" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -19544,7 +19544,7 @@
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B352" s="4" t="s">
         <v>725</v>
@@ -19558,7 +19558,7 @@
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B353" s="4" t="s">
         <v>726</v>
@@ -19659,18 +19659,18 @@
         <v>737</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C360" s="4" t="s">
         <v>709</v>
       </c>
       <c r="D360" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B361" s="4" t="s">
         <v>725</v>
@@ -19698,7 +19698,7 @@
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B363" s="4" t="s">
         <v>393</v>
@@ -19757,13 +19757,13 @@
         <v>741</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C367" s="4" t="s">
         <v>709</v>
       </c>
       <c r="D367" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -20428,7 +20428,7 @@
         <v>784</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>784</v>
@@ -20914,7 +20914,7 @@
         <v>784</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>784</v>
